--- a/biology/Botanique/Adams_Pearmain/Adams_Pearmain.xlsx
+++ b/biology/Botanique/Adams_Pearmain/Adams_Pearmain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">'Adams Pearmain' est le nom d'un cultivar de pommier domestique.
 Nom botanique : Malus domestica Borkh 'Adams Pearmain'.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Adam's Pearmain', 'Norfolk Pippin', 'Norfolk Russet', 'Matchless', 'Hanging Pearmain'.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle serait née en 1826, en Angleterre.
 Le pomologue allemand Dittrich, qui la décrivit en 1841, nous apprend que l'obtenteur, sir Robert Adams, l'appela d'abord Norfolk Pippin ; mais, plus tard, ce nom disparut sous celui du personnage auquel on doit un aussi précieux pommier.
@@ -577,26 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Doué d'une vigueur convenable, il prospère bien en plein vent mais les formes buisson ou cordon lui seront toujours plus avantageuses. 
-Fruit
-Grosseur
-Les fruits sont de grosseur moyenne mais parfois volumineuse[1].
-Forme
-Adams Pearmain est un fruit de forme conique-obtuse[1].
-Pédoncule
-Il est assez fin et assez grêle. Il est implanté dans un large évasement de profondeur variable[1].
-Œil
-L'œil est moyen et mi-clos, à cavité prononcée, de formation fort régulière et généralement plissée[1].
-Peau
-Elle est jaune verdâtre, quelque peu rugueuse du côté de l'ombre ; amplement lavée et striée de carmin terne du côté exposé au soleil, semée de très grands et nombreux points bruns sur le jaune, blanc-gris sur le rouge. Les pommes sont marbrées de roux-grisâtre (russeting) autour du pédoncule[1].
-Chair
-Elle est jaunâtre, fine, croquante[1].
-Eau
-Pomme très sucrée, acidulée possédant un parfum exquis rappelant celui de la violette[1].
-Maturité
-Elle est consommable de novembre à mars[1].
-Les fruits de cette variété sont non seulement classés parmi les meilleurs à couteau, mais encore fort estimés pour donner au cidre de la délicatesse et de la transparence.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doué d'une vigueur convenable, il prospère bien en plein vent mais les formes buisson ou cordon lui seront toujours plus avantageuses. 
 </t>
         </is>
       </c>
@@ -622,14 +625,345 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Grosseur</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont de grosseur moyenne mais parfois volumineuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adams Pearmain est un fruit de forme conique-obtuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pédoncule</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez fin et assez grêle. Il est implanté dans un large évasement de profondeur variable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Œil</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œil est moyen et mi-clos, à cavité prononcée, de formation fort régulière et généralement plissée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Peau</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jaune verdâtre, quelque peu rugueuse du côté de l'ombre ; amplement lavée et striée de carmin terne du côté exposé au soleil, semée de très grands et nombreux points bruns sur le jaune, blanc-gris sur le rouge. Les pommes sont marbrées de roux-grisâtre (russeting) autour du pédoncule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jaunâtre, fine, croquante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Eau</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pomme très sucrée, acidulée possédant un parfum exquis rappelant celui de la violette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est consommable de novembre à mars.
+Les fruits de cette variété sont non seulement classés parmi les meilleurs à couteau, mais encore fort estimés pour donner au cidre de la délicatesse et de la transparence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adams_Pearmain</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Cette variété est diploïde.
-Groupe de floraison :  B[2].
-S-génotype :  S1S3[3].</t>
+Groupe de floraison :  B.
+S-génotype :  S1S3.</t>
         </is>
       </c>
     </row>
